--- a/成语故事.xlsx
+++ b/成语故事.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="1659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="1653">
   <si>
     <t>idiom</t>
   </si>
@@ -3392,13 +3392,6 @@
   <si>
     <t>唐高宗时有一位大臣名叫韦思谦，做人正直，时常会劝谏皇上，有话就会直说。他考上进士之后，被任命为应城县令，后来升为监察御史。有一次，他发现中书令（即宰相）褚遂良以很低廉的价钱强行购买邻人田地，正直的韦思迁也不害怕他官位高，势力大，立刻上书举发他。因为证据明确，朝廷不好意思公开庇护大臣，只好把褚遂良调出京城，降职为同州刺史。
 				　　过了一段时间，褚遂良又被重用，恢复了中书令的官职。褚遂良便找了理由报复韦思谦，把他贬到外省，当一名县官。有人替韦思谦打抱不平，暗中去慰问韦思谦，他仍然不改初衷，慷慨激昂的说：“我是一个正直的人，遇见不合理的事情，当然不肯放过，哪里有时间考虑个人得失呢？大丈夫应该有话就说，明目张胆而不畏强权，致力报效国家，怎么可以庸庸碌碌，只顾着保护自己和家人的安全！</t>
-  </si>
-  <si>
-    <t>模棱两可</t>
-  </si>
-  <si>
-    <t>唐朝时代，栾城有一个人，名字叫苏味道。他九岁的时候就会写文章，以后和他的同乡李峤都以才学出名，当时的人和称他们为苏李。苏味道在二十岁的时候，考取了进士，曾做到吏部侍郎的职位。后来在武则天当皇帝的时候，做了宰相。根据“唐书”的记载，苏味道做了宰相以后，只求保持个人的地位和安全，处理事情总是这样办也行，那样办也可以，却从不表示明确的态度和意见，更谈不上什么创建和改革了。他还常常对别人说：“处理事情不能做明确的决断。因为如果发生了错误，就要负失责的责任，只要保持“模棱”两端就可以了。”当时的人听他这么一说，都叫他“苏模棱”或者是“模棱手”。“模棱”是指方向可左可右的意思。因此，后人在遇到有人说话或处理事情不作明确的决断，也不表示显明的态度，可以或不可以都行，这就叫做“模棱两可”。
-				　　这故事只是用来说明成语的出处，可千万别学这种人的处事态度，而成为一个不负责任的人喔！</t>
   </si>
   <si>
     <t>摩肩接踵</t>
@@ -6027,12 +6020,6 @@
 				　　孟子用了两个比喻告诉齐王做事情要有恒心，要专心，否则是不会成功的。</t>
   </si>
   <si>
-    <t>一笔勾销</t>
-  </si>
-  <si>
-    <t>出处宋·朱熹《五朝名臣言行录·参政范问正公》公取班簿，视不才监司，每见一人姓名，一笔勾之。《雍熙乐府·端正好（黄梁梦）》你将那利名心一笔勾销。释义用笔在有关问题的书面材料上勾画一下，表示事情，问题已经完结或取消。比喻一下子全部摸去。</t>
-  </si>
-  <si>
     <t>一不做，二不休</t>
   </si>
   <si>
@@ -6648,14 +6635,6 @@
   </si>
   <si>
     <t>有一次，刘秀派耿合去攻打占据山东青州十二郡的豪强张步。张班兵强马壮，是耿合的一个劲敌。张步听说耿合率兵来攻。就派大将军费邑等分兵把守历下、祝阿、临淄，准备迎击。耿合先攻下祝阿，以后用计相继攻下历下和临淄。张步着急起来，亲自带兵反攻临淄，于是在临淄城外进行了一场生死搏斗的大血战。在战斗中，耿合大腿中了一箭，可是他勇敢地用佩刀砍断箭杆，带伤仍坚持战斗。刘秀闻讯。亲自带兵前来支援。在援兵还未到达的时候，部将陈俊认为张步兵力强大，建议暂时休战，等到援兵来后再发动进攻。可是耿合却认为不能把困难留给别人，经过一场激烈的战斗，耿合终于把张步打得大败。几天后，刘秀来到临淄，慰劳军队。他在许多将官面前夸奖耿合说：“过去韩信破历下开创基业，现在将军攻克祝阿，连战连捷，两功相仿，从前你在南阳曾建议请求平定张步，我当时以为你口气太大，恐怕难以成功，如今才知道，有志者事竟成啊!”</t>
-  </si>
-  <si>
-    <t>予取予求</t>
-  </si>
-  <si>
-    <t>出处：《左传·僖公七年》唯我知女(即汝，你)，女专利而不厌，予取予求，不女疵暇也。
-				　　释义：“予”意思是从我这里求取，现用来表示任意求取，贪得无厌。
-				　　故事：春秋初，又贫又弱的申国被楚国攻灭，国君申侯被楚文王留在楚国当大夫。申侯此人很贪，又善于谄媚，楚文王对他很宠信。凡是申侯要的东西，楚文王总是满足他；后来，楚文王生了重病，怕自己死后别人不能容申侯，便把他叫来，将一块价值连城的白璧给他，并且说道：“只有我最了解你，你贪得无厌，永远也不会知足。从我这里拿，从我这里要，我从不怪罪你。但我死后，别人就未必会这样了。所以你赶快离开楚国，越快越好。你不要到小国去，小国不会容纳你的。”申侯知道不离开楚国不行，收受了白璧后，就前往郑国。由于他能说会道，郑励公让他当大夫，对他也很信赖。</t>
   </si>
   <si>
     <t>愚公移山</t>
@@ -7167,10 +7146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -7182,29 +7161,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7219,7 +7183,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7241,18 +7266,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7264,24 +7282,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7294,36 +7303,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -7334,19 +7313,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7364,19 +7355,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7388,43 +7421,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7442,37 +7469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7484,31 +7481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7528,6 +7507,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7539,6 +7557,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7569,59 +7596,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7633,10 +7612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7645,133 +7624,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8101,10 +8080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B833"/>
+  <dimension ref="A1:B830"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A761" workbookViewId="0">
+      <selection activeCell="B761" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -11205,19 +11184,19 @@
         <v>770</v>
       </c>
     </row>
-    <row r="388" ht="409.5" spans="1:2">
+    <row r="388" spans="1:2">
       <c r="A388" t="s">
         <v>771</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="B388" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" ht="409.5" spans="1:2">
       <c r="A389" t="s">
         <v>773</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="1" t="s">
         <v>774</v>
       </c>
     </row>
@@ -11285,11 +11264,11 @@
         <v>790</v>
       </c>
     </row>
-    <row r="398" ht="409.5" spans="1:2">
+    <row r="398" spans="1:2">
       <c r="A398" t="s">
         <v>791</v>
       </c>
-      <c r="B398" s="1" t="s">
+      <c r="B398" t="s">
         <v>792</v>
       </c>
     </row>
@@ -11301,11 +11280,11 @@
         <v>794</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" ht="409.5" spans="1:2">
       <c r="A400" t="s">
         <v>795</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="1" t="s">
         <v>796</v>
       </c>
     </row>
@@ -11349,19 +11328,19 @@
         <v>806</v>
       </c>
     </row>
-    <row r="406" ht="409.5" spans="1:2">
+    <row r="406" spans="1:2">
       <c r="A406" t="s">
         <v>807</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="B406" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" ht="409.5" spans="1:2">
       <c r="A407" t="s">
         <v>809</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="1" t="s">
         <v>810</v>
       </c>
     </row>
@@ -11389,19 +11368,19 @@
         <v>816</v>
       </c>
     </row>
-    <row r="411" ht="409.5" spans="1:2">
+    <row r="411" spans="1:2">
       <c r="A411" t="s">
         <v>817</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="B411" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" ht="409.5" spans="1:2">
       <c r="A412" t="s">
         <v>819</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="1" t="s">
         <v>820</v>
       </c>
     </row>
@@ -11469,19 +11448,19 @@
         <v>836</v>
       </c>
     </row>
-    <row r="421" ht="409.5" spans="1:2">
+    <row r="421" spans="1:2">
       <c r="A421" t="s">
         <v>837</v>
       </c>
-      <c r="B421" s="1" t="s">
+      <c r="B421" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" ht="409.5" spans="1:2">
       <c r="A422" t="s">
         <v>839</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="1" t="s">
         <v>840</v>
       </c>
     </row>
@@ -11525,19 +11504,19 @@
         <v>850</v>
       </c>
     </row>
-    <row r="428" ht="409.5" spans="1:2">
+    <row r="428" spans="1:2">
       <c r="A428" t="s">
         <v>851</v>
       </c>
-      <c r="B428" s="1" t="s">
+      <c r="B428" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" ht="409.5" spans="1:2">
       <c r="A429" t="s">
         <v>853</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="1" t="s">
         <v>854</v>
       </c>
     </row>
@@ -11549,19 +11528,19 @@
         <v>856</v>
       </c>
     </row>
-    <row r="431" ht="409.5" spans="1:2">
+    <row r="431" spans="1:2">
       <c r="A431" t="s">
         <v>857</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="B431" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" ht="409.5" spans="1:2">
       <c r="A432" t="s">
         <v>859</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="1" t="s">
         <v>860</v>
       </c>
     </row>
@@ -11589,11 +11568,11 @@
         <v>866</v>
       </c>
     </row>
-    <row r="436" ht="409.5" spans="1:2">
+    <row r="436" spans="1:2">
       <c r="A436" t="s">
         <v>867</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="B436" t="s">
         <v>868</v>
       </c>
     </row>
@@ -11610,15 +11589,15 @@
         <v>871</v>
       </c>
       <c r="B438" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="439" ht="409.5" spans="1:2">
+      <c r="A439" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="439" spans="1:2">
-      <c r="A439" t="s">
+      <c r="B439" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="B439" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="440" ht="409.5" spans="1:2">
@@ -11677,11 +11656,11 @@
         <v>887</v>
       </c>
     </row>
-    <row r="447" ht="409.5" spans="1:2">
+    <row r="447" spans="1:2">
       <c r="A447" t="s">
         <v>888</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="B447" t="s">
         <v>889</v>
       </c>
     </row>
@@ -11693,11 +11672,11 @@
         <v>891</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" ht="409.5" spans="1:2">
       <c r="A449" t="s">
         <v>892</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="1" t="s">
         <v>893</v>
       </c>
     </row>
@@ -11725,19 +11704,19 @@
         <v>899</v>
       </c>
     </row>
-    <row r="453" ht="409.5" spans="1:2">
+    <row r="453" spans="1:2">
       <c r="A453" t="s">
         <v>900</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="B453" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" ht="409.5" spans="1:2">
       <c r="A454" t="s">
         <v>902</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="1" t="s">
         <v>903</v>
       </c>
     </row>
@@ -11749,11 +11728,11 @@
         <v>905</v>
       </c>
     </row>
-    <row r="456" ht="409.5" spans="1:2">
+    <row r="456" spans="1:2">
       <c r="A456" t="s">
         <v>906</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="B456" t="s">
         <v>907</v>
       </c>
     </row>
@@ -11765,27 +11744,27 @@
         <v>909</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" ht="409.5" spans="1:2">
       <c r="A458" t="s">
         <v>910</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="1" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="459" ht="409.5" spans="1:2">
+    <row r="459" spans="1:2">
       <c r="A459" t="s">
         <v>912</v>
       </c>
-      <c r="B459" s="1" t="s">
+      <c r="B459" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" ht="409.5" spans="1:2">
       <c r="A460" t="s">
         <v>914</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="1" t="s">
         <v>915</v>
       </c>
     </row>
@@ -11877,19 +11856,19 @@
         <v>937</v>
       </c>
     </row>
-    <row r="472" ht="409.5" spans="1:2">
+    <row r="472" spans="1:2">
       <c r="A472" t="s">
         <v>938</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="B472" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" ht="409.5" spans="1:2">
       <c r="A473" t="s">
         <v>940</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="1" t="s">
         <v>941</v>
       </c>
     </row>
@@ -12077,27 +12056,27 @@
         <v>987</v>
       </c>
     </row>
-    <row r="497" ht="409.5" spans="1:2">
+    <row r="497" spans="1:2">
       <c r="A497" t="s">
         <v>988</v>
       </c>
-      <c r="B497" s="1" t="s">
+      <c r="B497" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" ht="409.5" spans="1:2">
       <c r="A498" t="s">
         <v>990</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="1" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="499" ht="409.5" spans="1:2">
+    <row r="499" spans="1:2">
       <c r="A499" t="s">
         <v>992</v>
       </c>
-      <c r="B499" s="1" t="s">
+      <c r="B499" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12117,11 +12096,11 @@
         <v>997</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" ht="409.5" spans="1:2">
       <c r="A502" t="s">
         <v>998</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="1" t="s">
         <v>999</v>
       </c>
     </row>
@@ -12181,19 +12160,19 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="510" ht="409.5" spans="1:2">
+    <row r="510" spans="1:2">
       <c r="A510" t="s">
         <v>1014</v>
       </c>
-      <c r="B510" s="1" t="s">
+      <c r="B510" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" ht="409.5" spans="1:2">
       <c r="A511" t="s">
         <v>1016</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="1" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -12229,51 +12208,51 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="516" ht="409.5" spans="1:2">
+    <row r="516" spans="1:2">
       <c r="A516" t="s">
         <v>1026</v>
       </c>
-      <c r="B516" s="1" t="s">
+      <c r="B516" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" ht="409.5" spans="1:2">
       <c r="A517" t="s">
         <v>1028</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517" s="1" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="518" ht="409.5" spans="1:2">
+    <row r="518" spans="1:2">
       <c r="A518" t="s">
         <v>1030</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="B518" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" ht="409.5" spans="1:2">
       <c r="A519" t="s">
         <v>1032</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519" s="1" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="520" ht="409.5" spans="1:2">
+    <row r="520" spans="1:2">
       <c r="A520" t="s">
         <v>1034</v>
       </c>
-      <c r="B520" s="1" t="s">
+      <c r="B520" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" ht="409.5" spans="1:2">
       <c r="A521" t="s">
         <v>1036</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521" s="1" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -12317,19 +12296,19 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="527" ht="409.5" spans="1:2">
+    <row r="527" spans="1:2">
       <c r="A527" t="s">
         <v>1048</v>
       </c>
-      <c r="B527" s="1" t="s">
+      <c r="B527" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="528" spans="1:2">
+    <row r="528" ht="409.5" spans="1:2">
       <c r="A528" t="s">
         <v>1050</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="1" t="s">
         <v>1051</v>
       </c>
     </row>
@@ -12373,19 +12352,19 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="534" ht="409.5" spans="1:2">
+    <row r="534" spans="1:2">
       <c r="A534" t="s">
         <v>1062</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="B534" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="535" spans="1:2">
+    <row r="535" ht="409.5" spans="1:2">
       <c r="A535" t="s">
         <v>1064</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535" s="1" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -12429,19 +12408,19 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="541" ht="409.5" spans="1:2">
+    <row r="541" spans="1:2">
       <c r="A541" t="s">
         <v>1076</v>
       </c>
-      <c r="B541" s="1" t="s">
+      <c r="B541" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" ht="409.5" spans="1:2">
       <c r="A542" t="s">
         <v>1078</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B542" s="1" t="s">
         <v>1079</v>
       </c>
     </row>
@@ -12453,19 +12432,19 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="544" ht="409.5" spans="1:2">
+    <row r="544" spans="1:2">
       <c r="A544" t="s">
         <v>1082</v>
       </c>
-      <c r="B544" s="1" t="s">
+      <c r="B544" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" ht="409.5" spans="1:2">
       <c r="A545" t="s">
         <v>1084</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B545" s="1" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -12509,11 +12488,11 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="551" ht="409.5" spans="1:2">
+    <row r="551" spans="1:2">
       <c r="A551" t="s">
         <v>1096</v>
       </c>
-      <c r="B551" s="1" t="s">
+      <c r="B551" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -12525,59 +12504,59 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
+    <row r="553" ht="409.5" spans="1:2">
       <c r="A553" t="s">
         <v>1100</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B553" s="1" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="554" ht="409.5" spans="1:2">
+    <row r="554" spans="1:2">
       <c r="A554" t="s">
         <v>1102</v>
       </c>
-      <c r="B554" s="1" t="s">
+      <c r="B554" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="555" spans="1:2">
+    <row r="555" ht="409.5" spans="1:2">
       <c r="A555" t="s">
         <v>1104</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B555" s="1" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="556" ht="409.5" spans="1:2">
+    <row r="556" spans="1:2">
       <c r="A556" t="s">
         <v>1106</v>
       </c>
-      <c r="B556" s="1" t="s">
+      <c r="B556" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" ht="409.5" spans="1:2">
       <c r="A557" t="s">
         <v>1108</v>
       </c>
-      <c r="B557" t="s">
+      <c r="B557" s="1" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="558" ht="409.5" spans="1:2">
+    <row r="558" spans="1:2">
       <c r="A558" t="s">
         <v>1110</v>
       </c>
-      <c r="B558" s="1" t="s">
+      <c r="B558" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="559" spans="1:2">
+    <row r="559" ht="409.5" spans="1:2">
       <c r="A559" t="s">
         <v>1112</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B559" s="1" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -12637,11 +12616,11 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="567" ht="409.5" spans="1:2">
+    <row r="567" spans="1:2">
       <c r="A567" t="s">
         <v>1128</v>
       </c>
-      <c r="B567" s="1" t="s">
+      <c r="B567" t="s">
         <v>1129</v>
       </c>
     </row>
@@ -12661,27 +12640,27 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="570" spans="1:2">
+    <row r="570" ht="409.5" spans="1:2">
       <c r="A570" t="s">
         <v>1134</v>
       </c>
-      <c r="B570" t="s">
+      <c r="B570" s="1" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="571" ht="409.5" spans="1:2">
+    <row r="571" spans="1:2">
       <c r="A571" t="s">
         <v>1136</v>
       </c>
-      <c r="B571" s="1" t="s">
+      <c r="B571" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="572" spans="1:2">
+    <row r="572" ht="409.5" spans="1:2">
       <c r="A572" t="s">
         <v>1138</v>
       </c>
-      <c r="B572" t="s">
+      <c r="B572" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -12693,19 +12672,19 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="574" ht="409.5" spans="1:2">
+    <row r="574" spans="1:2">
       <c r="A574" t="s">
         <v>1142</v>
       </c>
-      <c r="B574" s="1" t="s">
+      <c r="B574" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="575" spans="1:2">
+    <row r="575" ht="409.5" spans="1:2">
       <c r="A575" t="s">
         <v>1144</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B575" s="1" t="s">
         <v>1145</v>
       </c>
     </row>
@@ -12741,19 +12720,19 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="580" ht="409.5" spans="1:2">
+    <row r="580" spans="1:2">
       <c r="A580" t="s">
         <v>1154</v>
       </c>
-      <c r="B580" s="1" t="s">
+      <c r="B580" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="581" spans="1:2">
+    <row r="581" ht="409.5" spans="1:2">
       <c r="A581" t="s">
         <v>1156</v>
       </c>
-      <c r="B581" t="s">
+      <c r="B581" s="1" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -12765,27 +12744,27 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="583" ht="409.5" spans="1:2">
+    <row r="583" spans="1:2">
       <c r="A583" t="s">
         <v>1160</v>
       </c>
-      <c r="B583" s="1" t="s">
+      <c r="B583" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="584" spans="1:2">
+    <row r="584" ht="409.5" spans="1:2">
       <c r="A584" t="s">
         <v>1162</v>
       </c>
-      <c r="B584" t="s">
+      <c r="B584" s="1" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="585" ht="409.5" spans="1:2">
+    <row r="585" spans="1:2">
       <c r="A585" t="s">
         <v>1164</v>
       </c>
-      <c r="B585" s="1" t="s">
+      <c r="B585" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -12797,19 +12776,19 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="587" spans="1:2">
+    <row r="587" ht="409.5" spans="1:2">
       <c r="A587" t="s">
         <v>1168</v>
       </c>
-      <c r="B587" t="s">
+      <c r="B587" s="1" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="588" ht="409.5" spans="1:2">
+    <row r="588" spans="1:2">
       <c r="A588" t="s">
         <v>1170</v>
       </c>
-      <c r="B588" s="1" t="s">
+      <c r="B588" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -12821,11 +12800,11 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="590" spans="1:2">
+    <row r="590" ht="409.5" spans="1:2">
       <c r="A590" t="s">
         <v>1174</v>
       </c>
-      <c r="B590" t="s">
+      <c r="B590" s="1" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -12837,19 +12816,19 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="592" ht="409.5" spans="1:2">
+    <row r="592" spans="1:2">
       <c r="A592" t="s">
         <v>1178</v>
       </c>
-      <c r="B592" s="1" t="s">
+      <c r="B592" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="593" spans="1:2">
+    <row r="593" ht="409.5" spans="1:2">
       <c r="A593" t="s">
         <v>1180</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B593" s="1" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -12869,11 +12848,11 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="596" ht="409.5" spans="1:2">
+    <row r="596" spans="1:2">
       <c r="A596" t="s">
         <v>1186</v>
       </c>
-      <c r="B596" s="1" t="s">
+      <c r="B596" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -12885,27 +12864,27 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="598" spans="1:2">
+    <row r="598" ht="409.5" spans="1:2">
       <c r="A598" t="s">
         <v>1190</v>
       </c>
-      <c r="B598" t="s">
+      <c r="B598" s="1" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="599" ht="409.5" spans="1:2">
+    <row r="599" spans="1:2">
       <c r="A599" t="s">
         <v>1192</v>
       </c>
-      <c r="B599" s="1" t="s">
+      <c r="B599" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="600" spans="1:2">
+    <row r="600" ht="409.5" spans="1:2">
       <c r="A600" t="s">
         <v>1194</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B600" s="1" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -12917,19 +12896,19 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="602" ht="409.5" spans="1:2">
+    <row r="602" spans="1:2">
       <c r="A602" t="s">
         <v>1198</v>
       </c>
-      <c r="B602" s="1" t="s">
+      <c r="B602" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="603" spans="1:2">
+    <row r="603" ht="409.5" spans="1:2">
       <c r="A603" t="s">
         <v>1200</v>
       </c>
-      <c r="B603" t="s">
+      <c r="B603" s="1" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -12941,11 +12920,11 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="605" ht="409.5" spans="1:2">
+    <row r="605" spans="1:2">
       <c r="A605" t="s">
         <v>1204</v>
       </c>
-      <c r="B605" s="1" t="s">
+      <c r="B605" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -12957,19 +12936,19 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="607" spans="1:2">
+    <row r="607" ht="409.5" spans="1:2">
       <c r="A607" t="s">
         <v>1208</v>
       </c>
-      <c r="B607" t="s">
+      <c r="B607" s="1" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="608" ht="409.5" spans="1:2">
+    <row r="608" spans="1:2">
       <c r="A608" t="s">
         <v>1210</v>
       </c>
-      <c r="B608" s="1" t="s">
+      <c r="B608" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -12989,11 +12968,11 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="611" spans="1:2">
+    <row r="611" ht="409.5" spans="1:2">
       <c r="A611" t="s">
         <v>1216</v>
       </c>
-      <c r="B611" t="s">
+      <c r="B611" s="1" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -13021,27 +13000,27 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="615" ht="409.5" spans="1:2">
+    <row r="615" spans="1:2">
       <c r="A615" t="s">
         <v>1224</v>
       </c>
-      <c r="B615" s="1" t="s">
+      <c r="B615" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="616" spans="1:2">
+    <row r="616" ht="409.5" spans="1:2">
       <c r="A616" t="s">
         <v>1226</v>
       </c>
-      <c r="B616" t="s">
+      <c r="B616" s="1" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="617" ht="409.5" spans="1:2">
+    <row r="617" spans="1:2">
       <c r="A617" t="s">
         <v>1228</v>
       </c>
-      <c r="B617" s="1" t="s">
+      <c r="B617" t="s">
         <v>1229</v>
       </c>
     </row>
@@ -13077,19 +13056,19 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="622" spans="1:2">
+    <row r="622" ht="409.5" spans="1:2">
       <c r="A622" t="s">
         <v>1238</v>
       </c>
-      <c r="B622" t="s">
+      <c r="B622" s="1" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="623" ht="409.5" spans="1:2">
+    <row r="623" spans="1:2">
       <c r="A623" t="s">
         <v>1240</v>
       </c>
-      <c r="B623" s="1" t="s">
+      <c r="B623" t="s">
         <v>1241</v>
       </c>
     </row>
@@ -13117,11 +13096,11 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="627" spans="1:2">
+    <row r="627" ht="409.5" spans="1:2">
       <c r="A627" t="s">
         <v>1248</v>
       </c>
-      <c r="B627" t="s">
+      <c r="B627" s="1" t="s">
         <v>1249</v>
       </c>
     </row>
@@ -13133,19 +13112,19 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="629" ht="409.5" spans="1:2">
+    <row r="629" spans="1:2">
       <c r="A629" t="s">
         <v>1252</v>
       </c>
-      <c r="B629" s="1" t="s">
+      <c r="B629" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="630" spans="1:2">
+    <row r="630" ht="409.5" spans="1:2">
       <c r="A630" t="s">
         <v>1254</v>
       </c>
-      <c r="B630" t="s">
+      <c r="B630" s="1" t="s">
         <v>1255</v>
       </c>
     </row>
@@ -13165,11 +13144,11 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="633" ht="409.5" spans="1:2">
+    <row r="633" spans="1:2">
       <c r="A633" t="s">
         <v>1260</v>
       </c>
-      <c r="B633" s="1" t="s">
+      <c r="B633" t="s">
         <v>1261</v>
       </c>
     </row>
@@ -13181,11 +13160,11 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="635" spans="1:2">
+    <row r="635" ht="409.5" spans="1:2">
       <c r="A635" t="s">
         <v>1264</v>
       </c>
-      <c r="B635" t="s">
+      <c r="B635" s="1" t="s">
         <v>1265</v>
       </c>
     </row>
@@ -13213,11 +13192,11 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="639" ht="409.5" spans="1:2">
+    <row r="639" spans="1:2">
       <c r="A639" t="s">
         <v>1272</v>
       </c>
-      <c r="B639" s="1" t="s">
+      <c r="B639" t="s">
         <v>1273</v>
       </c>
     </row>
@@ -13245,35 +13224,35 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="643" spans="1:2">
+    <row r="643" ht="409.5" spans="1:2">
       <c r="A643" t="s">
         <v>1280</v>
       </c>
-      <c r="B643" t="s">
+      <c r="B643" s="1" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="644" ht="409.5" spans="1:2">
+    <row r="644" spans="1:2">
       <c r="A644" t="s">
         <v>1282</v>
       </c>
-      <c r="B644" s="1" t="s">
+      <c r="B644" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="645" spans="1:2">
+    <row r="645" ht="409.5" spans="1:2">
       <c r="A645" t="s">
         <v>1284</v>
       </c>
-      <c r="B645" t="s">
+      <c r="B645" s="1" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="646" ht="409.5" spans="1:2">
+    <row r="646" spans="1:2">
       <c r="A646" t="s">
         <v>1286</v>
       </c>
-      <c r="B646" s="1" t="s">
+      <c r="B646" t="s">
         <v>1287</v>
       </c>
     </row>
@@ -13285,27 +13264,27 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="648" spans="1:2">
+    <row r="648" ht="409.5" spans="1:2">
       <c r="A648" t="s">
         <v>1290</v>
       </c>
-      <c r="B648" t="s">
+      <c r="B648" s="1" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="649" ht="409.5" spans="1:2">
+    <row r="649" spans="1:2">
       <c r="A649" t="s">
         <v>1292</v>
       </c>
-      <c r="B649" s="1" t="s">
+      <c r="B649" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="650" spans="1:2">
+    <row r="650" ht="409.5" spans="1:2">
       <c r="A650" t="s">
         <v>1294</v>
       </c>
-      <c r="B650" t="s">
+      <c r="B650" s="1" t="s">
         <v>1295</v>
       </c>
     </row>
@@ -13333,20 +13312,20 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="654" ht="409.5" spans="1:2">
+    <row r="654" spans="1:2">
       <c r="A654" t="s">
         <v>1302</v>
       </c>
-      <c r="B654" s="1" t="s">
-        <v>1303</v>
+      <c r="B654" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B655" t="s">
         <v>1304</v>
-      </c>
-      <c r="B655" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -13357,19 +13336,19 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="657" spans="1:2">
+    <row r="657" ht="409.5" spans="1:2">
       <c r="A657" t="s">
         <v>1307</v>
       </c>
-      <c r="B657" t="s">
+      <c r="B657" s="1" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="658" ht="409.5" spans="1:2">
+    <row r="658" spans="1:2">
       <c r="A658" t="s">
         <v>1309</v>
       </c>
-      <c r="B658" s="1" t="s">
+      <c r="B658" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13389,27 +13368,27 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="661" spans="1:2">
+    <row r="661" ht="409.5" spans="1:2">
       <c r="A661" t="s">
         <v>1315</v>
       </c>
-      <c r="B661" t="s">
+      <c r="B661" s="1" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="662" ht="409.5" spans="1:2">
+    <row r="662" spans="1:2">
       <c r="A662" t="s">
         <v>1317</v>
       </c>
-      <c r="B662" s="1" t="s">
+      <c r="B662" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="663" spans="1:2">
+    <row r="663" ht="409.5" spans="1:2">
       <c r="A663" t="s">
         <v>1319</v>
       </c>
-      <c r="B663" t="s">
+      <c r="B663" s="1" t="s">
         <v>1320</v>
       </c>
     </row>
@@ -13429,27 +13408,27 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="666" ht="409.5" spans="1:2">
+    <row r="666" spans="1:2">
       <c r="A666" t="s">
         <v>1325</v>
       </c>
-      <c r="B666" s="1" t="s">
+      <c r="B666" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="667" spans="1:2">
+    <row r="667" ht="409.5" spans="1:2">
       <c r="A667" t="s">
         <v>1327</v>
       </c>
-      <c r="B667" t="s">
+      <c r="B667" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="668" ht="409.5" spans="1:2">
+    <row r="668" spans="1:2">
       <c r="A668" t="s">
         <v>1329</v>
       </c>
-      <c r="B668" s="1" t="s">
+      <c r="B668" t="s">
         <v>1330</v>
       </c>
     </row>
@@ -13469,11 +13448,11 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="671" spans="1:2">
+    <row r="671" ht="409.5" spans="1:2">
       <c r="A671" t="s">
         <v>1335</v>
       </c>
-      <c r="B671" t="s">
+      <c r="B671" s="1" t="s">
         <v>1336</v>
       </c>
     </row>
@@ -13485,19 +13464,19 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="673" ht="409.5" spans="1:2">
+    <row r="673" spans="1:2">
       <c r="A673" t="s">
         <v>1339</v>
       </c>
-      <c r="B673" s="1" t="s">
+      <c r="B673" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="674" spans="1:2">
+    <row r="674" ht="409.5" spans="1:2">
       <c r="A674" t="s">
         <v>1341</v>
       </c>
-      <c r="B674" t="s">
+      <c r="B674" s="1" t="s">
         <v>1342</v>
       </c>
     </row>
@@ -13509,27 +13488,27 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="676" ht="409.5" spans="1:2">
+    <row r="676" spans="1:2">
       <c r="A676" t="s">
         <v>1345</v>
       </c>
-      <c r="B676" s="1" t="s">
+      <c r="B676" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="677" spans="1:2">
+    <row r="677" ht="409.5" spans="1:2">
       <c r="A677" t="s">
         <v>1347</v>
       </c>
-      <c r="B677" t="s">
+      <c r="B677" s="1" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="678" ht="409.5" spans="1:2">
+    <row r="678" spans="1:2">
       <c r="A678" t="s">
         <v>1349</v>
       </c>
-      <c r="B678" s="1" t="s">
+      <c r="B678" t="s">
         <v>1350</v>
       </c>
     </row>
@@ -13541,11 +13520,11 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="680" spans="1:2">
+    <row r="680" ht="409.5" spans="1:2">
       <c r="A680" t="s">
         <v>1353</v>
       </c>
-      <c r="B680" t="s">
+      <c r="B680" s="1" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -13573,11 +13552,11 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="684" spans="1:2">
+    <row r="684" ht="409.5" spans="1:2">
       <c r="A684" t="s">
         <v>1361</v>
       </c>
-      <c r="B684" t="s">
+      <c r="B684" s="1" t="s">
         <v>1362</v>
       </c>
     </row>
@@ -13589,11 +13568,11 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="686" ht="409.5" spans="1:2">
+    <row r="686" spans="1:2">
       <c r="A686" t="s">
         <v>1365</v>
       </c>
-      <c r="B686" s="1" t="s">
+      <c r="B686" t="s">
         <v>1366</v>
       </c>
     </row>
@@ -13613,27 +13592,27 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="689" ht="409.5" spans="1:2">
+    <row r="689" spans="1:2">
       <c r="A689" t="s">
         <v>1371</v>
       </c>
-      <c r="B689" s="1" t="s">
+      <c r="B689" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="690" spans="1:2">
+    <row r="690" ht="409.5" spans="1:2">
       <c r="A690" t="s">
         <v>1373</v>
       </c>
-      <c r="B690" t="s">
+      <c r="B690" s="1" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="691" spans="1:2">
+    <row r="691" ht="409.5" spans="1:2">
       <c r="A691" t="s">
         <v>1375</v>
       </c>
-      <c r="B691" t="s">
+      <c r="B691" s="1" t="s">
         <v>1376</v>
       </c>
     </row>
@@ -13677,11 +13656,11 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="697" ht="409.5" spans="1:2">
+    <row r="697" spans="1:2">
       <c r="A697" t="s">
         <v>1387</v>
       </c>
-      <c r="B697" s="1" t="s">
+      <c r="B697" t="s">
         <v>1388</v>
       </c>
     </row>
@@ -13709,11 +13688,11 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="701" spans="1:2">
+    <row r="701" ht="409.5" spans="1:2">
       <c r="A701" t="s">
         <v>1395</v>
       </c>
-      <c r="B701" t="s">
+      <c r="B701" s="1" t="s">
         <v>1396</v>
       </c>
     </row>
@@ -13765,11 +13744,11 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="708" ht="409.5" spans="1:2">
+    <row r="708" spans="1:2">
       <c r="A708" t="s">
         <v>1409</v>
       </c>
-      <c r="B708" s="1" t="s">
+      <c r="B708" t="s">
         <v>1410</v>
       </c>
     </row>
@@ -13781,27 +13760,27 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="710" spans="1:2">
+    <row r="710" ht="409.5" spans="1:2">
       <c r="A710" t="s">
         <v>1413</v>
       </c>
-      <c r="B710" t="s">
+      <c r="B710" s="1" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="711" ht="409.5" spans="1:2">
+    <row r="711" spans="1:2">
       <c r="A711" t="s">
         <v>1415</v>
       </c>
-      <c r="B711" s="1" t="s">
+      <c r="B711" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="712" ht="409.5" spans="1:2">
+    <row r="712" spans="1:2">
       <c r="A712" t="s">
         <v>1417</v>
       </c>
-      <c r="B712" s="1" t="s">
+      <c r="B712" t="s">
         <v>1418</v>
       </c>
     </row>
@@ -13813,19 +13792,19 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="714" spans="1:2">
+    <row r="714" ht="409.5" spans="1:2">
       <c r="A714" t="s">
         <v>1421</v>
       </c>
-      <c r="B714" t="s">
+      <c r="B714" s="1" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="715" spans="1:2">
+    <row r="715" ht="409.5" spans="1:2">
       <c r="A715" t="s">
         <v>1423</v>
       </c>
-      <c r="B715" t="s">
+      <c r="B715" s="1" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -13869,11 +13848,11 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="721" ht="409.5" spans="1:2">
+    <row r="721" spans="1:2">
       <c r="A721" t="s">
         <v>1435</v>
       </c>
-      <c r="B721" s="1" t="s">
+      <c r="B721" t="s">
         <v>1436</v>
       </c>
     </row>
@@ -13885,11 +13864,11 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="723" spans="1:2">
+    <row r="723" ht="409.5" spans="1:2">
       <c r="A723" t="s">
         <v>1439</v>
       </c>
-      <c r="B723" t="s">
+      <c r="B723" s="1" t="s">
         <v>1440</v>
       </c>
     </row>
@@ -13901,11 +13880,11 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="725" ht="409.5" spans="1:2">
+    <row r="725" spans="1:2">
       <c r="A725" t="s">
         <v>1443</v>
       </c>
-      <c r="B725" s="1" t="s">
+      <c r="B725" t="s">
         <v>1444</v>
       </c>
     </row>
@@ -13917,11 +13896,11 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="727" spans="1:2">
+    <row r="727" ht="409.5" spans="1:2">
       <c r="A727" t="s">
         <v>1447</v>
       </c>
-      <c r="B727" t="s">
+      <c r="B727" s="1" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -13933,19 +13912,19 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="729" ht="409.5" spans="1:2">
+    <row r="729" spans="1:2">
       <c r="A729" t="s">
         <v>1451</v>
       </c>
-      <c r="B729" s="1" t="s">
+      <c r="B729" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="730" ht="409.5" spans="1:2">
+    <row r="730" spans="1:2">
       <c r="A730" t="s">
         <v>1453</v>
       </c>
-      <c r="B730" s="1" t="s">
+      <c r="B730" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -13965,11 +13944,11 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="733" spans="1:2">
+    <row r="733" ht="409.5" spans="1:2">
       <c r="A733" t="s">
         <v>1459</v>
       </c>
-      <c r="B733" t="s">
+      <c r="B733" s="1" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -13981,27 +13960,27 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="735" ht="409.5" spans="1:2">
+    <row r="735" spans="1:2">
       <c r="A735" t="s">
         <v>1463</v>
       </c>
-      <c r="B735" s="1" t="s">
+      <c r="B735" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="736" spans="1:2">
+    <row r="736" ht="409.5" spans="1:2">
       <c r="A736" t="s">
         <v>1465</v>
       </c>
-      <c r="B736" t="s">
+      <c r="B736" s="1" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="737" spans="1:2">
+    <row r="737" ht="409.5" spans="1:2">
       <c r="A737" t="s">
         <v>1467</v>
       </c>
-      <c r="B737" t="s">
+      <c r="B737" s="1" t="s">
         <v>1468</v>
       </c>
     </row>
@@ -14021,11 +14000,11 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="740" ht="409.5" spans="1:2">
+    <row r="740" spans="1:2">
       <c r="A740" t="s">
         <v>1473</v>
       </c>
-      <c r="B740" s="1" t="s">
+      <c r="B740" t="s">
         <v>1474</v>
       </c>
     </row>
@@ -14045,19 +14024,19 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="743" ht="409.5" spans="1:2">
+    <row r="743" spans="1:2">
       <c r="A743" t="s">
         <v>1479</v>
       </c>
-      <c r="B743" s="1" t="s">
+      <c r="B743" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="744" spans="1:2">
+    <row r="744" ht="409.5" spans="1:2">
       <c r="A744" t="s">
         <v>1481</v>
       </c>
-      <c r="B744" t="s">
+      <c r="B744" s="1" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -14077,11 +14056,11 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="747" spans="1:2">
+    <row r="747" ht="409.5" spans="1:2">
       <c r="A747" t="s">
         <v>1487</v>
       </c>
-      <c r="B747" t="s">
+      <c r="B747" s="1" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -14093,19 +14072,19 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="749" ht="409.5" spans="1:2">
+    <row r="749" spans="1:2">
       <c r="A749" t="s">
         <v>1491</v>
       </c>
-      <c r="B749" s="1" t="s">
+      <c r="B749" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="750" ht="409.5" spans="1:2">
+    <row r="750" spans="1:2">
       <c r="A750" t="s">
         <v>1493</v>
       </c>
-      <c r="B750" s="1" t="s">
+      <c r="B750" t="s">
         <v>1494</v>
       </c>
     </row>
@@ -14117,11 +14096,11 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="752" spans="1:2">
+    <row r="752" ht="409.5" spans="1:2">
       <c r="A752" t="s">
         <v>1497</v>
       </c>
-      <c r="B752" t="s">
+      <c r="B752" s="1" t="s">
         <v>1498</v>
       </c>
     </row>
@@ -14133,43 +14112,43 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="754" ht="409.5" spans="1:2">
+    <row r="754" spans="1:2">
       <c r="A754" t="s">
         <v>1501</v>
       </c>
-      <c r="B754" s="1" t="s">
+      <c r="B754" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="755" spans="1:2">
+    <row r="755" ht="409.5" spans="1:2">
       <c r="A755" t="s">
         <v>1503</v>
       </c>
-      <c r="B755" t="s">
+      <c r="B755" s="1" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="756" spans="1:2">
+    <row r="756" ht="409.5" spans="1:2">
       <c r="A756" t="s">
         <v>1505</v>
       </c>
-      <c r="B756" t="s">
+      <c r="B756" s="1" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="757" ht="409.5" spans="1:2">
+    <row r="757" spans="1:2">
       <c r="A757" t="s">
         <v>1507</v>
       </c>
-      <c r="B757" s="1" t="s">
+      <c r="B757" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="758" ht="409.5" spans="1:2">
+    <row r="758" spans="1:2">
       <c r="A758" t="s">
         <v>1509</v>
       </c>
-      <c r="B758" s="1" t="s">
+      <c r="B758" t="s">
         <v>1510</v>
       </c>
     </row>
@@ -14181,35 +14160,35 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="760" spans="1:2">
+    <row r="760" ht="409.5" spans="1:2">
       <c r="A760" t="s">
         <v>1513</v>
       </c>
-      <c r="B760" t="s">
-        <v>1514</v>
+      <c r="B760" s="1" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B761" t="s">
         <v>1515</v>
-      </c>
-      <c r="B761" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="762" ht="409.5" spans="1:2">
       <c r="A762" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B762" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="B762" s="1" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2">
+    </row>
+    <row r="763" ht="409.5" spans="1:2">
       <c r="A763" t="s">
         <v>1518</v>
       </c>
-      <c r="B763" t="s">
+      <c r="B763" s="1" t="s">
         <v>1519</v>
       </c>
     </row>
@@ -14221,11 +14200,11 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="765" ht="409.5" spans="1:2">
+    <row r="765" spans="1:2">
       <c r="A765" t="s">
         <v>1522</v>
       </c>
-      <c r="B765" s="1" t="s">
+      <c r="B765" t="s">
         <v>1523</v>
       </c>
     </row>
@@ -14269,11 +14248,11 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="771" spans="1:2">
+    <row r="771" ht="409.5" spans="1:2">
       <c r="A771" t="s">
         <v>1534</v>
       </c>
-      <c r="B771" t="s">
+      <c r="B771" s="1" t="s">
         <v>1535</v>
       </c>
     </row>
@@ -14285,11 +14264,11 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="773" ht="409.5" spans="1:2">
+    <row r="773" spans="1:2">
       <c r="A773" t="s">
         <v>1538</v>
       </c>
-      <c r="B773" s="1" t="s">
+      <c r="B773" t="s">
         <v>1539</v>
       </c>
     </row>
@@ -14309,11 +14288,11 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="776" spans="1:2">
+    <row r="776" ht="409.5" spans="1:2">
       <c r="A776" t="s">
         <v>1544</v>
       </c>
-      <c r="B776" t="s">
+      <c r="B776" s="1" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -14325,11 +14304,11 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="778" ht="409.5" spans="1:2">
+    <row r="778" spans="1:2">
       <c r="A778" t="s">
         <v>1548</v>
       </c>
-      <c r="B778" s="1" t="s">
+      <c r="B778" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -14341,19 +14320,19 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="780" ht="409.5" spans="1:2">
+    <row r="780" spans="1:2">
       <c r="A780" t="s">
         <v>1552</v>
       </c>
-      <c r="B780" s="1" t="s">
+      <c r="B780" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="781" spans="1:2">
+    <row r="781" ht="409.5" spans="1:2">
       <c r="A781" t="s">
         <v>1554</v>
       </c>
-      <c r="B781" t="s">
+      <c r="B781" s="1" t="s">
         <v>1555</v>
       </c>
     </row>
@@ -14373,19 +14352,19 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="784" ht="409.5" spans="1:2">
+    <row r="784" spans="1:2">
       <c r="A784" t="s">
         <v>1560</v>
       </c>
-      <c r="B784" s="1" t="s">
+      <c r="B784" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="785" ht="409.5" spans="1:2">
+    <row r="785" spans="1:2">
       <c r="A785" t="s">
         <v>1562</v>
       </c>
-      <c r="B785" s="1" t="s">
+      <c r="B785" t="s">
         <v>1563</v>
       </c>
     </row>
@@ -14397,11 +14376,11 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="787" spans="1:2">
+    <row r="787" ht="409.5" spans="1:2">
       <c r="A787" t="s">
         <v>1566</v>
       </c>
-      <c r="B787" t="s">
+      <c r="B787" s="1" t="s">
         <v>1567</v>
       </c>
     </row>
@@ -14413,11 +14392,11 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="789" spans="1:2">
+    <row r="789" ht="409.5" spans="1:2">
       <c r="A789" t="s">
         <v>1570</v>
       </c>
-      <c r="B789" t="s">
+      <c r="B789" s="1" t="s">
         <v>1571</v>
       </c>
     </row>
@@ -14429,27 +14408,27 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="791" spans="1:2">
+    <row r="791" ht="409.5" spans="1:2">
       <c r="A791" t="s">
         <v>1574</v>
       </c>
-      <c r="B791" t="s">
+      <c r="B791" s="1" t="s">
         <v>1575</v>
       </c>
     </row>
-    <row r="792" ht="409.5" spans="1:2">
+    <row r="792" spans="1:2">
       <c r="A792" t="s">
         <v>1576</v>
       </c>
-      <c r="B792" s="1" t="s">
+      <c r="B792" t="s">
         <v>1577</v>
       </c>
     </row>
-    <row r="793" ht="409.5" spans="1:2">
+    <row r="793" spans="1:2">
       <c r="A793" t="s">
         <v>1578</v>
       </c>
-      <c r="B793" s="1" t="s">
+      <c r="B793" t="s">
         <v>1579</v>
       </c>
     </row>
@@ -14469,19 +14448,19 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="796" spans="1:2">
+    <row r="796" ht="409.5" spans="1:2">
       <c r="A796" t="s">
         <v>1584</v>
       </c>
-      <c r="B796" t="s">
+      <c r="B796" s="1" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="797" ht="409.5" spans="1:2">
+    <row r="797" spans="1:2">
       <c r="A797" t="s">
         <v>1586</v>
       </c>
-      <c r="B797" s="1" t="s">
+      <c r="B797" t="s">
         <v>1587</v>
       </c>
     </row>
@@ -14493,11 +14472,11 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="799" ht="409.5" spans="1:2">
+    <row r="799" spans="1:2">
       <c r="A799" t="s">
         <v>1590</v>
       </c>
-      <c r="B799" s="1" t="s">
+      <c r="B799" t="s">
         <v>1591</v>
       </c>
     </row>
@@ -14509,11 +14488,11 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="801" spans="1:2">
+    <row r="801" ht="409.5" spans="1:2">
       <c r="A801" t="s">
         <v>1594</v>
       </c>
-      <c r="B801" t="s">
+      <c r="B801" s="1" t="s">
         <v>1595</v>
       </c>
     </row>
@@ -14533,27 +14512,27 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="804" ht="409.5" spans="1:2">
+    <row r="804" spans="1:2">
       <c r="A804" t="s">
         <v>1600</v>
       </c>
-      <c r="B804" s="1" t="s">
+      <c r="B804" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="805" spans="1:2">
+    <row r="805" ht="409.5" spans="1:2">
       <c r="A805" t="s">
         <v>1602</v>
       </c>
-      <c r="B805" t="s">
+      <c r="B805" s="1" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="806" spans="1:2">
+    <row r="806" ht="409.5" spans="1:2">
       <c r="A806" t="s">
         <v>1604</v>
       </c>
-      <c r="B806" t="s">
+      <c r="B806" s="1" t="s">
         <v>1605</v>
       </c>
     </row>
@@ -14573,19 +14552,19 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="809" ht="409.5" spans="1:2">
+    <row r="809" spans="1:2">
       <c r="A809" t="s">
         <v>1610</v>
       </c>
-      <c r="B809" s="1" t="s">
+      <c r="B809" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="810" spans="1:2">
+    <row r="810" ht="409.5" spans="1:2">
       <c r="A810" t="s">
         <v>1612</v>
       </c>
-      <c r="B810" t="s">
+      <c r="B810" s="1" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -14597,11 +14576,11 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="812" spans="1:2">
+    <row r="812" ht="409.5" spans="1:2">
       <c r="A812" t="s">
         <v>1616</v>
       </c>
-      <c r="B812" t="s">
+      <c r="B812" s="1" t="s">
         <v>1617</v>
       </c>
     </row>
@@ -14610,31 +14589,31 @@
         <v>1618</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="814" ht="409.5" spans="1:2">
       <c r="A814" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B814" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="B814" s="1" t="s">
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="815" ht="409.5" spans="1:2">
-      <c r="A815" t="s">
+      <c r="B815" t="s">
         <v>1622</v>
-      </c>
-      <c r="B815" s="1" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="816" ht="409.5" spans="1:2">
       <c r="A816" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B816" s="1" t="s">
         <v>1624</v>
-      </c>
-      <c r="B816" s="1" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="817" ht="409.5" spans="1:2">
@@ -14653,11 +14632,11 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="819" ht="409.5" spans="1:2">
+    <row r="819" spans="1:2">
       <c r="A819" t="s">
         <v>1629</v>
       </c>
-      <c r="B819" s="1" t="s">
+      <c r="B819" t="s">
         <v>1630</v>
       </c>
     </row>
@@ -14669,11 +14648,11 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="821" spans="1:2">
+    <row r="821" ht="409.5" spans="1:2">
       <c r="A821" t="s">
         <v>1633</v>
       </c>
-      <c r="B821" t="s">
+      <c r="B821" s="1" t="s">
         <v>1634</v>
       </c>
     </row>
@@ -14685,19 +14664,19 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="823" ht="409.5" spans="1:2">
+    <row r="823" spans="1:2">
       <c r="A823" t="s">
         <v>1637</v>
       </c>
-      <c r="B823" s="1" t="s">
+      <c r="B823" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="824" ht="409.5" spans="1:2">
+    <row r="824" spans="1:2">
       <c r="A824" t="s">
         <v>1639</v>
       </c>
-      <c r="B824" s="1" t="s">
+      <c r="B824" t="s">
         <v>1640</v>
       </c>
     </row>
@@ -14709,11 +14688,11 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="826" spans="1:2">
+    <row r="826" ht="409.5" spans="1:2">
       <c r="A826" t="s">
         <v>1643</v>
       </c>
-      <c r="B826" t="s">
+      <c r="B826" s="1" t="s">
         <v>1644</v>
       </c>
     </row>
@@ -14733,11 +14712,11 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="829" ht="409.5" spans="1:2">
+    <row r="829" spans="1:2">
       <c r="A829" t="s">
         <v>1649</v>
       </c>
-      <c r="B829" s="1" t="s">
+      <c r="B829" t="s">
         <v>1650</v>
       </c>
     </row>
@@ -14747,30 +14726,6 @@
       </c>
       <c r="B830" t="s">
         <v>1652</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2">
-      <c r="A831" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B831" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2">
-      <c r="A832" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B832" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2">
-      <c r="A833" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B833" t="s">
-        <v>1658</v>
       </c>
     </row>
   </sheetData>
